--- a/doors-detector/results/house22_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house22_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8040478329183339</v>
+        <v>0.7922245448891567</v>
       </c>
       <c r="F2" t="n">
         <v>1320</v>
       </c>
       <c r="G2" t="n">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="H2" t="n">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4805137974172504</v>
+        <v>0.4383741690284083</v>
       </c>
       <c r="F3" t="n">
         <v>84</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5344588690403925</v>
+        <v>0.5327848959613826</v>
       </c>
       <c r="F4" t="n">
         <v>223</v>
       </c>
       <c r="G4" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" t="n">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6392362712480532</v>
+        <v>0.7155574107145359</v>
       </c>
       <c r="F5" t="n">
         <v>1320</v>
       </c>
       <c r="G5" t="n">
-        <v>974</v>
+        <v>1042</v>
       </c>
       <c r="H5" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.521524704711253</v>
+        <v>0.5693715629125773</v>
       </c>
       <c r="F6" t="n">
         <v>84</v>
       </c>
       <c r="G6" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H6" t="n">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5721505232992153</v>
+        <v>0.5625841250023245</v>
       </c>
       <c r="F7" t="n">
         <v>223</v>
       </c>
       <c r="G7" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H7" t="n">
-        <v>411</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6469441175483642</v>
+        <v>0.7733795855337422</v>
       </c>
       <c r="F8" t="n">
         <v>1320</v>
       </c>
       <c r="G8" t="n">
-        <v>982</v>
+        <v>1096</v>
       </c>
       <c r="H8" t="n">
-        <v>338</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.566615404083221</v>
+        <v>0.6170209003381777</v>
       </c>
       <c r="F9" t="n">
         <v>84</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6173603740447602</v>
+        <v>0.5822598228219666</v>
       </c>
       <c r="F10" t="n">
         <v>223</v>
       </c>
       <c r="G10" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H10" t="n">
-        <v>419</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.693755478569561</v>
+        <v>0.6672333608336178</v>
       </c>
       <c r="F11" t="n">
         <v>1320</v>
       </c>
       <c r="G11" t="n">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="H11" t="n">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5486372924578383</v>
+        <v>0.6028833572746131</v>
       </c>
       <c r="F12" t="n">
         <v>84</v>
       </c>
       <c r="G12" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6183473218410381</v>
+        <v>0.6376506782822811</v>
       </c>
       <c r="F13" t="n">
         <v>223</v>
       </c>
       <c r="G13" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H13" t="n">
-        <v>422</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.6835121818122275</v>
+        <v>0.7184531380740633</v>
       </c>
       <c r="F14" t="n">
         <v>1320</v>
       </c>
       <c r="G14" t="n">
-        <v>1013</v>
+        <v>1043</v>
       </c>
       <c r="H14" t="n">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5942716020135639</v>
+        <v>0.6807286025417177</v>
       </c>
       <c r="F15" t="n">
         <v>84</v>
       </c>
       <c r="G15" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H15" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6071019402471698</v>
+        <v>0.6491564290017678</v>
       </c>
       <c r="F16" t="n">
         <v>223</v>
       </c>
       <c r="G16" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H16" t="n">
-        <v>409</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.665024529514994</v>
+        <v>0.7526725859438015</v>
       </c>
       <c r="F17" t="n">
         <v>1320</v>
       </c>
       <c r="G17" t="n">
-        <v>993</v>
+        <v>1071</v>
       </c>
       <c r="H17" t="n">
-        <v>327</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6439919314552037</v>
+        <v>0.7715237914984524</v>
       </c>
       <c r="F18" t="n">
         <v>84</v>
       </c>
       <c r="G18" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H18" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6323209747488275</v>
+        <v>0.6203729675817828</v>
       </c>
       <c r="F19" t="n">
         <v>223</v>
       </c>
       <c r="G19" t="n">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H19" t="n">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
